--- a/FX/敌人表结构.xlsx
+++ b/FX/敌人表结构.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -58,26 +58,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>魔防1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔防2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔防3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔防4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔防5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>能力1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -115,6 +95,10 @@
   </si>
   <si>
     <t>白给送钱怪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔防</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -454,19 +438,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R7"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.625" customWidth="1"/>
-    <col min="8" max="8" width="9.875" customWidth="1"/>
+    <col min="9" max="9" width="9.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -486,40 +470,28 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -542,10 +514,10 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -562,22 +534,10 @@
       <c r="N2">
         <v>0</v>
       </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B3">
         <v>10002</v>
@@ -598,11 +558,11 @@
         <v>10</v>
       </c>
       <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
         <v>2</v>
       </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
       <c r="J3">
         <v>0</v>
       </c>
@@ -618,22 +578,10 @@
       <c r="N3">
         <v>0</v>
       </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B4">
         <v>10003</v>
@@ -654,10 +602,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -674,22 +622,10 @@
       <c r="N4">
         <v>0</v>
       </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B5">
         <v>10004</v>
@@ -710,13 +646,13 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -728,24 +664,12 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>10</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B6">
         <v>10005</v>
@@ -766,42 +690,30 @@
         <v>5</v>
       </c>
       <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6">
         <v>2</v>
       </c>
-      <c r="I6">
-        <v>5</v>
-      </c>
       <c r="J6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B7">
         <v>10006</v>
@@ -840,18 +752,6 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
         <v>0</v>
       </c>
     </row>
